--- a/OOPproj2002/src/pkg_camp/staff_list.xlsx
+++ b/OOPproj2002/src/pkg_camp/staff_list.xlsx
@@ -10,7 +10,7 @@
     <sheet r:id="rId1" sheetId="1" name="staff"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$1:$B$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">=staff!$A$1:$B$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,18 +102,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFff0000"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -144,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -158,19 +146,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -478,7 +454,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -486,9 +462,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -557,411 +533,6 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="5"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="5"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="5"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="5"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="3"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
